--- a/docs/詳細設計/シーケンス図/シーケンス図改訂履歴.xlsx
+++ b/docs/詳細設計/シーケンス図/シーケンス図改訂履歴.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\OWNER\Downloads\pleiades-4.8.0-java-win-64bit-jre_20180923\pleiades\workspace\poker\docs\詳細設計\シーケンス図\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{866933BF-92B8-4488-B4CC-FB5A9696AE8F}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5624AA1D-8F31-4BAD-8742-80CBA97C58E1}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="17484" windowHeight="8628" xr2:uid="{2063D046-5AE3-42D6-BCF2-16FE09FC0C7C}"/>
   </bookViews>
   <sheets>
     <sheet name="改訂履歴(ユーザー登録)" sheetId="8" r:id="rId1"/>
+    <sheet name="改訂履歴(ベット)" sheetId="9" r:id="rId2"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="7">
   <si>
     <t>バージョン</t>
     <phoneticPr fontId="1"/>
@@ -50,16 +51,6 @@
   </si>
   <si>
     <t>新規作成</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>シーケンス図画像</t>
-    <rPh sb="5" eb="6">
-      <t>ズ</t>
-    </rPh>
-    <rPh sb="6" eb="8">
-      <t>ガゾウ</t>
-    </rPh>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -196,7 +187,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -204,12 +195,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -225,7 +210,51 @@
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="4">
+  <dxfs count="6">
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
     <dxf>
       <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
@@ -327,119 +356,25 @@
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>660380</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>185569</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>5746375</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>2947201</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="図 2">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D40B3401-24BA-4F38-BCBE-BB998EB4BF5A}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3905604" y="418651"/>
-          <a:ext cx="5085995" cy="2761632"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>358588</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>277273</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>6284258</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>3129944</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="8" name="図 7">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2B12B7C3-283E-476B-B89F-EDA8C9E301DE}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3603812" y="3639038"/>
-          <a:ext cx="5925670" cy="2852671"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{B9759991-BE47-41BD-B677-DBC7F98D18EF}" name="テーブル33" displayName="テーブル33" ref="A1:C3" totalsRowShown="0">
+  <autoFilter ref="A1:C3" xr:uid="{46792F26-7C25-492E-91B2-8A5B0876E5EC}"/>
+  <tableColumns count="3">
+    <tableColumn id="1" xr3:uid="{A15928ED-C92D-49D3-8475-6903782D1E16}" name="バージョン" dataDxfId="5"/>
+    <tableColumn id="2" xr3:uid="{F7F20C27-DED5-4A41-85E9-75D874BE861F}" name="改修内容" dataDxfId="4"/>
+    <tableColumn id="5" xr3:uid="{4350222D-07D0-49C1-8753-03C3A126A159}" name="作業日" dataDxfId="3"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
-<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{B9759991-BE47-41BD-B677-DBC7F98D18EF}" name="テーブル33" displayName="テーブル33" ref="A1:D3" totalsRowShown="0">
-  <autoFilter ref="A1:D3" xr:uid="{46792F26-7C25-492E-91B2-8A5B0876E5EC}"/>
-  <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{A15928ED-C92D-49D3-8475-6903782D1E16}" name="バージョン" dataDxfId="3"/>
-    <tableColumn id="2" xr3:uid="{F7F20C27-DED5-4A41-85E9-75D874BE861F}" name="改修内容" dataDxfId="2"/>
-    <tableColumn id="4" xr3:uid="{BB008AA4-3688-46D0-AB86-E7CF7476D062}" name="シーケンス図画像" dataDxfId="1"/>
-    <tableColumn id="5" xr3:uid="{4350222D-07D0-49C1-8753-03C3A126A159}" name="作業日" dataDxfId="0"/>
+<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{0378C138-09FB-4E63-9075-B93C545291C8}" name="テーブル332" displayName="テーブル332" ref="A1:C2" totalsRowShown="0">
+  <autoFilter ref="A1:C2" xr:uid="{46792F26-7C25-492E-91B2-8A5B0876E5EC}"/>
+  <tableColumns count="3">
+    <tableColumn id="1" xr3:uid="{DC0E961F-8BE8-4A03-B3B1-E39AEC87A302}" name="バージョン" dataDxfId="2"/>
+    <tableColumn id="2" xr3:uid="{A2A491E8-50B2-4838-9873-5B517450BB86}" name="改修内容" dataDxfId="1"/>
+    <tableColumn id="5" xr3:uid="{82D3032E-DF64-49C4-8278-ADED062B604F}" name="作業日" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -742,21 +677,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C1101CFE-3A47-40C0-8D0E-0FA60B6F5711}">
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="15.3984375" customWidth="1"/>
-    <col min="2" max="2" width="27.19921875" customWidth="1"/>
-    <col min="3" max="3" width="83.296875" customWidth="1"/>
-    <col min="4" max="4" width="17.296875" customWidth="1"/>
+    <col min="2" max="2" width="47.3984375" customWidth="1"/>
+    <col min="3" max="3" width="17.296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -764,42 +698,82 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="246.6" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:3" ht="246.6" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="3"/>
-      <c r="D2" s="5">
+      <c r="C2" s="3">
         <v>43481</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="268.8" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:3" ht="268.8" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A3" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="C3" s="4"/>
-      <c r="D3" s="6">
+      <c r="B3" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" s="4">
         <v>43488</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
   <tableParts count="1">
-    <tablePart r:id="rId2"/>
+    <tablePart r:id="rId1"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7248C40E-4AB1-4E8C-ADE4-E8FE5BB65B17}">
+  <dimension ref="A1:C2"/>
+  <sheetViews>
+    <sheetView showGridLines="0" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="1" max="1" width="15.3984375" customWidth="1"/>
+    <col min="2" max="2" width="47.3984375" customWidth="1"/>
+    <col min="3" max="3" width="17.296875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="246.6" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" s="3">
+        <v>43489</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
   </tableParts>
 </worksheet>
 </file>
--- a/docs/詳細設計/シーケンス図/シーケンス図改訂履歴.xlsx
+++ b/docs/詳細設計/シーケンス図/シーケンス図改訂履歴.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\OWNER\Downloads\pleiades-4.8.0-java-win-64bit-jre_20180923\pleiades\workspace\poker\docs\詳細設計\シーケンス図\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5624AA1D-8F31-4BAD-8742-80CBA97C58E1}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23549151-4314-493D-A5F3-ADB76229031F}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="17484" windowHeight="8628" xr2:uid="{2063D046-5AE3-42D6-BCF2-16FE09FC0C7C}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="9">
   <si>
     <t>バージョン</t>
     <phoneticPr fontId="1"/>
@@ -100,6 +100,38 @@
     <rPh sb="0" eb="2">
       <t>サギョウビ2</t>
     </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・新規ユーザーを保存後に、所持金情報を作成して保存するように修正した。</t>
+    <rPh sb="1" eb="3">
+      <t>シンキ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ホゾン</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>ゴ</t>
+    </rPh>
+    <rPh sb="13" eb="16">
+      <t>ショジキン</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>ジョウホウ</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>サクセイ</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>ホゾン</t>
+    </rPh>
+    <rPh sb="30" eb="32">
+      <t>シュウセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>V3.0</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -187,7 +219,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -204,6 +236,15 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -357,8 +398,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{B9759991-BE47-41BD-B677-DBC7F98D18EF}" name="テーブル33" displayName="テーブル33" ref="A1:C3" totalsRowShown="0">
-  <autoFilter ref="A1:C3" xr:uid="{46792F26-7C25-492E-91B2-8A5B0876E5EC}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{B9759991-BE47-41BD-B677-DBC7F98D18EF}" name="テーブル33" displayName="テーブル33" ref="A1:C4" totalsRowShown="0">
+  <autoFilter ref="A1:C4" xr:uid="{46792F26-7C25-492E-91B2-8A5B0876E5EC}"/>
   <tableColumns count="3">
     <tableColumn id="1" xr3:uid="{A15928ED-C92D-49D3-8475-6903782D1E16}" name="バージョン" dataDxfId="5"/>
     <tableColumn id="2" xr3:uid="{F7F20C27-DED5-4A41-85E9-75D874BE861F}" name="改修内容" dataDxfId="4"/>
@@ -677,10 +718,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C1101CFE-3A47-40C0-8D0E-0FA60B6F5711}">
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:C4"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -701,7 +742,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="246.6" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:3" ht="92.4" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
@@ -712,7 +753,7 @@
         <v>43481</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="268.8" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:3" ht="169.2" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A3" s="1" t="s">
         <v>3</v>
       </c>
@@ -721,6 +762,17 @@
       </c>
       <c r="C3" s="4">
         <v>43488</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="101.4" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A4" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" s="7">
+        <v>43490</v>
       </c>
     </row>
   </sheetData>

--- a/docs/詳細設計/シーケンス図/シーケンス図改訂履歴.xlsx
+++ b/docs/詳細設計/シーケンス図/シーケンス図改訂履歴.xlsx
@@ -8,13 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\OWNER\Downloads\pleiades-4.8.0-java-win-64bit-jre_20180923\pleiades\workspace\poker\docs\詳細設計\シーケンス図\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23549151-4314-493D-A5F3-ADB76229031F}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30D185F5-A195-49BD-88F5-EB491544E2B4}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="17484" windowHeight="8628" xr2:uid="{2063D046-5AE3-42D6-BCF2-16FE09FC0C7C}"/>
   </bookViews>
   <sheets>
     <sheet name="改訂履歴(ユーザー登録)" sheetId="8" r:id="rId1"/>
     <sheet name="改訂履歴(ベット)" sheetId="9" r:id="rId2"/>
+    <sheet name="改訂履歴(ログイン)" sheetId="10" r:id="rId3"/>
+    <sheet name="改訂履歴(ランキング表示)" sheetId="11" r:id="rId4"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -26,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="10">
   <si>
     <t>バージョン</t>
     <phoneticPr fontId="1"/>
@@ -132,6 +134,19 @@
   </si>
   <si>
     <t>V3.0</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・所持金チェックをサーバー側で実施するようにした。</t>
+    <rPh sb="1" eb="4">
+      <t>ショジキン</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>ガワ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>ジッシ</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -219,7 +234,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -238,20 +253,149 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="6">
+  <dxfs count="12">
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
     <dxf>
       <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
@@ -401,9 +545,9 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{B9759991-BE47-41BD-B677-DBC7F98D18EF}" name="テーブル33" displayName="テーブル33" ref="A1:C4" totalsRowShown="0">
   <autoFilter ref="A1:C4" xr:uid="{46792F26-7C25-492E-91B2-8A5B0876E5EC}"/>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{A15928ED-C92D-49D3-8475-6903782D1E16}" name="バージョン" dataDxfId="5"/>
-    <tableColumn id="2" xr3:uid="{F7F20C27-DED5-4A41-85E9-75D874BE861F}" name="改修内容" dataDxfId="4"/>
-    <tableColumn id="5" xr3:uid="{4350222D-07D0-49C1-8753-03C3A126A159}" name="作業日" dataDxfId="3"/>
+    <tableColumn id="1" xr3:uid="{A15928ED-C92D-49D3-8475-6903782D1E16}" name="バージョン" dataDxfId="11"/>
+    <tableColumn id="2" xr3:uid="{F7F20C27-DED5-4A41-85E9-75D874BE861F}" name="改修内容" dataDxfId="10"/>
+    <tableColumn id="5" xr3:uid="{4350222D-07D0-49C1-8753-03C3A126A159}" name="作業日" dataDxfId="9"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -413,9 +557,33 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{0378C138-09FB-4E63-9075-B93C545291C8}" name="テーブル332" displayName="テーブル332" ref="A1:C2" totalsRowShown="0">
   <autoFilter ref="A1:C2" xr:uid="{46792F26-7C25-492E-91B2-8A5B0876E5EC}"/>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{DC0E961F-8BE8-4A03-B3B1-E39AEC87A302}" name="バージョン" dataDxfId="2"/>
-    <tableColumn id="2" xr3:uid="{A2A491E8-50B2-4838-9873-5B517450BB86}" name="改修内容" dataDxfId="1"/>
-    <tableColumn id="5" xr3:uid="{82D3032E-DF64-49C4-8278-ADED062B604F}" name="作業日" dataDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{DC0E961F-8BE8-4A03-B3B1-E39AEC87A302}" name="バージョン" dataDxfId="8"/>
+    <tableColumn id="2" xr3:uid="{A2A491E8-50B2-4838-9873-5B517450BB86}" name="改修内容" dataDxfId="7"/>
+    <tableColumn id="5" xr3:uid="{82D3032E-DF64-49C4-8278-ADED062B604F}" name="作業日" dataDxfId="6"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{DCB1323C-9F8C-4C20-9568-341D6CDBB895}" name="テーブル3324" displayName="テーブル3324" ref="A1:C2" totalsRowShown="0">
+  <autoFilter ref="A1:C2" xr:uid="{46792F26-7C25-492E-91B2-8A5B0876E5EC}"/>
+  <tableColumns count="3">
+    <tableColumn id="1" xr3:uid="{E66D766F-7415-4A41-B9F1-0ACF92A6054F}" name="バージョン" dataDxfId="5"/>
+    <tableColumn id="2" xr3:uid="{913F5B66-2AA2-4B3B-9277-D1F990808CA3}" name="改修内容" dataDxfId="4"/>
+    <tableColumn id="5" xr3:uid="{03272E52-6983-46EF-9977-3E6A6FF2AB12}" name="作業日" dataDxfId="3"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{95AA1788-8786-441F-84CD-923C91B9A1A1}" name="テーブル33245" displayName="テーブル33245" ref="A1:C2" totalsRowShown="0">
+  <autoFilter ref="A1:C2" xr:uid="{46792F26-7C25-492E-91B2-8A5B0876E5EC}"/>
+  <tableColumns count="3">
+    <tableColumn id="1" xr3:uid="{81107004-A66A-4EE8-B388-AD8397763343}" name="バージョン" dataDxfId="2"/>
+    <tableColumn id="2" xr3:uid="{0B219B2D-CBD1-4288-AED4-F0EEE784CA4B}" name="改修内容" dataDxfId="1"/>
+    <tableColumn id="5" xr3:uid="{8ACE232E-33DE-4DC3-8C33-9EC2441229FA}" name="作業日" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -721,6 +889,74 @@
   <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:C2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="1" max="1" width="15.3984375" customWidth="1"/>
+    <col min="2" max="2" width="47.3984375" customWidth="1"/>
+    <col min="3" max="3" width="17.296875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="92.4" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" s="3">
+        <v>43481</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="169.2" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" s="4">
+        <v>43488</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="101.4" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A4" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" s="7">
+        <v>43490</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7248C40E-4AB1-4E8C-ADE4-E8FE5BB65B17}">
+  <dimension ref="A1:C3"/>
+  <sheetViews>
+    <sheetView showGridLines="0" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
@@ -742,7 +978,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="92.4" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:3" ht="77.400000000000006" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
@@ -750,7 +986,7 @@
         <v>4</v>
       </c>
       <c r="C2" s="3">
-        <v>43481</v>
+        <v>43489</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="169.2" customHeight="1" x14ac:dyDescent="0.45">
@@ -758,21 +994,10 @@
         <v>3</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3" s="4">
-        <v>43488</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" ht="101.4" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A4" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="B4" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="7">
-        <v>43490</v>
+        <v>9</v>
+      </c>
+      <c r="C3" s="6">
+        <v>43491</v>
       </c>
     </row>
   </sheetData>
@@ -784,12 +1009,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7248C40E-4AB1-4E8C-ADE4-E8FE5BB65B17}">
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{10F5BE5A-D827-4206-BC9B-CCD7A52FB56D}">
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -810,7 +1035,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="246.6" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:3" ht="66" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
@@ -818,7 +1043,53 @@
         <v>4</v>
       </c>
       <c r="C2" s="3">
-        <v>43489</v>
+        <v>43491</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{758F48C9-CC4D-4DA0-9215-F85945EBBFBC}">
+  <dimension ref="A1:C2"/>
+  <sheetViews>
+    <sheetView showGridLines="0" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B15" sqref="B15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="1" max="1" width="15.3984375" customWidth="1"/>
+    <col min="2" max="2" width="47.3984375" customWidth="1"/>
+    <col min="3" max="3" width="17.296875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="70.2" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" s="3">
+        <v>43491</v>
       </c>
     </row>
   </sheetData>

--- a/docs/詳細設計/シーケンス図/シーケンス図改訂履歴.xlsx
+++ b/docs/詳細設計/シーケンス図/シーケンス図改訂履歴.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\OWNER\Downloads\pleiades-4.8.0-java-win-64bit-jre_20180923\pleiades\workspace\poker\docs\詳細設計\シーケンス図\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30D185F5-A195-49BD-88F5-EB491544E2B4}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8B9188B-39E8-4DC7-834D-248A7BD1C36A}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17484" windowHeight="8628" xr2:uid="{2063D046-5AE3-42D6-BCF2-16FE09FC0C7C}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="17484" windowHeight="8628" activeTab="1" xr2:uid="{2063D046-5AE3-42D6-BCF2-16FE09FC0C7C}"/>
   </bookViews>
   <sheets>
     <sheet name="改訂履歴(ユーザー登録)" sheetId="8" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="11">
   <si>
     <t>バージョン</t>
     <phoneticPr fontId="1"/>
@@ -146,6 +146,31 @@
     </rPh>
     <rPh sb="15" eb="17">
       <t>ジッシ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・ポーカーの勝負結果が引き分けだった場合の処理を追加</t>
+    <rPh sb="6" eb="8">
+      <t>ショウブ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ケッカ</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>ヒ</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>ワ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>ショリ</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>ツイカ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -171,15 +196,21 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor theme="4" tint="0.79998168889431442"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="4">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -228,13 +259,28 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -257,6 +303,15 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -888,7 +943,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C1101CFE-3A47-40C0-8D0E-0FA60B6F5711}">
   <dimension ref="A1:C4"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView showGridLines="0" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="A2" sqref="A2:C2"/>
     </sheetView>
   </sheetViews>
@@ -954,9 +1009,9 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7248C40E-4AB1-4E8C-ADE4-E8FE5BB65B17}">
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:C4"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
@@ -998,6 +1053,17 @@
       </c>
       <c r="C3" s="6">
         <v>43491</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="36" x14ac:dyDescent="0.45">
+      <c r="A4" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" s="10">
+        <v>43508</v>
       </c>
     </row>
   </sheetData>

--- a/docs/詳細設計/シーケンス図/シーケンス図改訂履歴.xlsx
+++ b/docs/詳細設計/シーケンス図/シーケンス図改訂履歴.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21231"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\OWNER\Downloads\pleiades-4.8.0-java-win-64bit-jre_20180923\pleiades\workspace\poker\docs\詳細設計\シーケンス図\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8B9188B-39E8-4DC7-834D-248A7BD1C36A}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64322901-2B4C-4732-8455-2190AD097C1E}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17484" windowHeight="8628" activeTab="1" xr2:uid="{2063D046-5AE3-42D6-BCF2-16FE09FC0C7C}"/>
+    <workbookView xWindow="972" yWindow="864" windowWidth="21816" windowHeight="9816" xr2:uid="{2063D046-5AE3-42D6-BCF2-16FE09FC0C7C}"/>
   </bookViews>
   <sheets>
     <sheet name="改訂履歴(ユーザー登録)" sheetId="8" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="16">
   <si>
     <t>バージョン</t>
     <phoneticPr fontId="1"/>
@@ -171,6 +171,78 @@
     </rPh>
     <rPh sb="24" eb="26">
       <t>ツイカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>V4.0</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・コントローラでリクエストを受け取った時にもらえる情報について記載</t>
+    <rPh sb="14" eb="15">
+      <t>ウ</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>ト</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>トキ</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>ジョウホウ</t>
+    </rPh>
+    <rPh sb="31" eb="33">
+      <t>キサイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">・コントローラでリクエストを受け取った時にもらえる情報について記載
+・ログインセッションはコントローラーで作るように修正
+・UpdateLoginTime()を削除
+・isLoggedinToday()を削除
+</t>
+    <rPh sb="53" eb="54">
+      <t>ツク</t>
+    </rPh>
+    <rPh sb="58" eb="60">
+      <t>シュウセイ</t>
+    </rPh>
+    <rPh sb="80" eb="82">
+      <t>サクジョ</t>
+    </rPh>
+    <rPh sb="102" eb="104">
+      <t>サクジョ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・コントローラでリクエストを受け取った時にもらえる情報について記載
+・テーブル名以外のpossession_moneyという記述をmoneyに変更</t>
+    <rPh sb="39" eb="40">
+      <t>メイ</t>
+    </rPh>
+    <rPh sb="40" eb="42">
+      <t>イガイ</t>
+    </rPh>
+    <rPh sb="62" eb="64">
+      <t>キジュツ</t>
+    </rPh>
+    <rPh sb="71" eb="73">
+      <t>ヘンコウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・コントローラでリクエストを受け取った時にもらえる情報について記載
+・create(userName, password)をnew User(userName, password)に変更
+・create(userId)をnew Money(\nuserId, \nPokerConstants.USER_REGISTER_BOUNS, \nLocalDateTime.now())に変更</t>
+    <rPh sb="91" eb="93">
+      <t>ヘンコウ</t>
+    </rPh>
+    <rPh sb="191" eb="193">
+      <t>ヘンコウ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -280,7 +352,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -312,6 +384,18 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -597,8 +681,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{B9759991-BE47-41BD-B677-DBC7F98D18EF}" name="テーブル33" displayName="テーブル33" ref="A1:C4" totalsRowShown="0">
-  <autoFilter ref="A1:C4" xr:uid="{46792F26-7C25-492E-91B2-8A5B0876E5EC}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{B9759991-BE47-41BD-B677-DBC7F98D18EF}" name="テーブル33" displayName="テーブル33" ref="A1:C5" totalsRowShown="0">
+  <autoFilter ref="A1:C5" xr:uid="{46792F26-7C25-492E-91B2-8A5B0876E5EC}"/>
   <tableColumns count="3">
     <tableColumn id="1" xr3:uid="{A15928ED-C92D-49D3-8475-6903782D1E16}" name="バージョン" dataDxfId="11"/>
     <tableColumn id="2" xr3:uid="{F7F20C27-DED5-4A41-85E9-75D874BE861F}" name="改修内容" dataDxfId="10"/>
@@ -621,8 +705,8 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{DCB1323C-9F8C-4C20-9568-341D6CDBB895}" name="テーブル3324" displayName="テーブル3324" ref="A1:C2" totalsRowShown="0">
-  <autoFilter ref="A1:C2" xr:uid="{46792F26-7C25-492E-91B2-8A5B0876E5EC}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{DCB1323C-9F8C-4C20-9568-341D6CDBB895}" name="テーブル3324" displayName="テーブル3324" ref="A1:C3" totalsRowShown="0">
+  <autoFilter ref="A1:C3" xr:uid="{46792F26-7C25-492E-91B2-8A5B0876E5EC}"/>
   <tableColumns count="3">
     <tableColumn id="1" xr3:uid="{E66D766F-7415-4A41-B9F1-0ACF92A6054F}" name="バージョン" dataDxfId="5"/>
     <tableColumn id="2" xr3:uid="{913F5B66-2AA2-4B3B-9277-D1F990808CA3}" name="改修内容" dataDxfId="4"/>
@@ -633,8 +717,8 @@
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{95AA1788-8786-441F-84CD-923C91B9A1A1}" name="テーブル33245" displayName="テーブル33245" ref="A1:C2" totalsRowShown="0">
-  <autoFilter ref="A1:C2" xr:uid="{46792F26-7C25-492E-91B2-8A5B0876E5EC}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{95AA1788-8786-441F-84CD-923C91B9A1A1}" name="テーブル33245" displayName="テーブル33245" ref="A1:C3" totalsRowShown="0">
+  <autoFilter ref="A1:C3" xr:uid="{46792F26-7C25-492E-91B2-8A5B0876E5EC}"/>
   <tableColumns count="3">
     <tableColumn id="1" xr3:uid="{81107004-A66A-4EE8-B388-AD8397763343}" name="バージョン" dataDxfId="2"/>
     <tableColumn id="2" xr3:uid="{0B219B2D-CBD1-4288-AED4-F0EEE784CA4B}" name="改修内容" dataDxfId="1"/>
@@ -941,77 +1025,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C1101CFE-3A47-40C0-8D0E-0FA60B6F5711}">
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:C5"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:C2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
-  <cols>
-    <col min="1" max="1" width="15.3984375" customWidth="1"/>
-    <col min="2" max="2" width="47.3984375" customWidth="1"/>
-    <col min="3" max="3" width="17.296875" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" ht="92.4" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A2" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C2" s="3">
-        <v>43481</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" ht="169.2" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A3" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B3" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3" s="4">
-        <v>43488</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" ht="101.4" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A4" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B4" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="7">
-        <v>43490</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <tableParts count="1">
-    <tablePart r:id="rId1"/>
-  </tableParts>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7248C40E-4AB1-4E8C-ADE4-E8FE5BB65B17}">
-  <dimension ref="A1:C4"/>
-  <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
@@ -1033,7 +1049,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="77.400000000000006" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:3" ht="92.4" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
@@ -1041,7 +1057,7 @@
         <v>4</v>
       </c>
       <c r="C2" s="3">
-        <v>43489</v>
+        <v>43481</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="169.2" customHeight="1" x14ac:dyDescent="0.45">
@@ -1049,21 +1065,32 @@
         <v>3</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="C3" s="6">
-        <v>43491</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" ht="36" x14ac:dyDescent="0.45">
-      <c r="A4" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" s="4">
+        <v>43488</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="101.4" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A4" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="C4" s="10">
-        <v>43508</v>
+      <c r="B4" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" s="7">
+        <v>43490</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="126" x14ac:dyDescent="0.45">
+      <c r="A5" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="C5" s="4">
+        <v>43520</v>
       </c>
     </row>
   </sheetData>
@@ -1075,12 +1102,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{10F5BE5A-D827-4206-BC9B-CCD7A52FB56D}">
-  <dimension ref="A1:C2"/>
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7248C40E-4AB1-4E8C-ADE4-E8FE5BB65B17}">
+  <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D21" sqref="D21"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -1101,6 +1128,85 @@
         <v>6</v>
       </c>
     </row>
+    <row r="2" spans="1:3" ht="77.400000000000006" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" s="3">
+        <v>43489</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="169.2" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="6">
+        <v>43491</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="36" x14ac:dyDescent="0.45">
+      <c r="A4" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" s="10">
+        <v>43508</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="78" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A5" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C5" s="6">
+        <v>43520</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{10F5BE5A-D827-4206-BC9B-CCD7A52FB56D}">
+  <dimension ref="A1:C3"/>
+  <sheetViews>
+    <sheetView showGridLines="0" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="1" max="1" width="15.3984375" customWidth="1"/>
+    <col min="2" max="2" width="66.09765625" customWidth="1"/>
+    <col min="3" max="3" width="17.296875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>6</v>
+      </c>
+    </row>
     <row r="2" spans="1:3" ht="66" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A2" s="1" t="s">
         <v>2</v>
@@ -1110,6 +1216,17 @@
       </c>
       <c r="C2" s="3">
         <v>43491</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="90" x14ac:dyDescent="0.45">
+      <c r="A3" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="C3" s="14">
+        <v>43520</v>
       </c>
     </row>
   </sheetData>
@@ -1123,10 +1240,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{758F48C9-CC4D-4DA0-9215-F85945EBBFBC}">
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -1158,6 +1275,17 @@
         <v>43491</v>
       </c>
     </row>
+    <row r="3" spans="1:3" ht="36" x14ac:dyDescent="0.45">
+      <c r="A3" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3" s="14">
+        <v>43520</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/docs/詳細設計/シーケンス図/シーケンス図改訂履歴.xlsx
+++ b/docs/詳細設計/シーケンス図/シーケンス図改訂履歴.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\OWNER\Downloads\pleiades-4.8.0-java-win-64bit-jre_20180923\pleiades\workspace\poker\docs\詳細設計\シーケンス図\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64322901-2B4C-4732-8455-2190AD097C1E}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{529C6213-E782-496C-8029-9C6A99BD7A50}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="972" yWindow="864" windowWidth="21816" windowHeight="9816" xr2:uid="{2063D046-5AE3-42D6-BCF2-16FE09FC0C7C}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{2063D046-5AE3-42D6-BCF2-16FE09FC0C7C}"/>
   </bookViews>
   <sheets>
     <sheet name="改訂履歴(ユーザー登録)" sheetId="8" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="18">
   <si>
     <t>バージョン</t>
     <phoneticPr fontId="1"/>
@@ -243,6 +243,39 @@
     </rPh>
     <rPh sb="191" eb="193">
       <t>ヘンコウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>V5.0</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・セッションチェックして、セッションタイムアウト時には、セッションタイムアウト画面に遷移する処理を追加
+・MoneyControllerという存在しないControllerをPokerControllerに置き換えた</t>
+    <rPh sb="24" eb="25">
+      <t>トキ</t>
+    </rPh>
+    <rPh sb="39" eb="41">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="42" eb="44">
+      <t>センイ</t>
+    </rPh>
+    <rPh sb="46" eb="48">
+      <t>ショリ</t>
+    </rPh>
+    <rPh sb="49" eb="51">
+      <t>ツイカ</t>
+    </rPh>
+    <rPh sb="71" eb="73">
+      <t>ソンザイ</t>
+    </rPh>
+    <rPh sb="103" eb="104">
+      <t>オ</t>
+    </rPh>
+    <rPh sb="105" eb="106">
+      <t>カ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -352,7 +385,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -397,6 +430,9 @@
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1104,7 +1140,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7248C40E-4AB1-4E8C-ADE4-E8FE5BB65B17}">
-  <dimension ref="A1:C5"/>
+  <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
@@ -1170,6 +1206,17 @@
       </c>
       <c r="C5" s="6">
         <v>43520</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="90" x14ac:dyDescent="0.45">
+      <c r="A6" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="B6" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="C6" s="10">
+        <v>43527</v>
       </c>
     </row>
   </sheetData>
